--- a/data/CartesReduction.xlsx
+++ b/data/CartesReduction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,16 +453,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C1752712628</t>
+          <t>C1753075041</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C1753075523</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C005</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
